--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{25498532-77E0-4D81-BAA3-5BEC1D122137}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF234A9E-454B-4052-8252-B083F091DC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
   <si>
     <t>Dato</t>
   </si>
@@ -163,6 +163,27 @@
   </si>
   <si>
     <t>UT01 - Brugertest af UC01 og UC08</t>
+  </si>
+  <si>
+    <t>UI-prototype android</t>
+  </si>
+  <si>
+    <t>reviewer</t>
+  </si>
+  <si>
+    <t>2 timer</t>
+  </si>
+  <si>
+    <t>10 til 20 min</t>
+  </si>
+  <si>
+    <t>UI-prototype desktop</t>
+  </si>
+  <si>
+    <t>OC0103 - angiv primo</t>
+  </si>
+  <si>
+    <t>1 time</t>
   </si>
 </sst>
 </file>
@@ -313,7 +334,7 @@
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="6" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="164" fontId="5" fillId="5" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -354,15 +375,20 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -745,7 +771,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3"/>
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -754,7 +780,7 @@
     <col min="3" max="3" width="31.42578125" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="31" style="17" customWidth="1"/>
-    <col min="6" max="6" width="31" style="22" customWidth="1"/>
+    <col min="6" max="6" width="31" style="21" customWidth="1"/>
     <col min="7" max="7" width="37.28515625" style="6" customWidth="1"/>
     <col min="8" max="8" width="37.28515625" style="2" customWidth="1"/>
   </cols>
@@ -810,8 +836,8 @@
       <c r="E3" s="14">
         <v>0.46875</v>
       </c>
-      <c r="F3" s="20">
-        <v>2</v>
+      <c r="F3" s="25" t="s">
+        <v>44</v>
       </c>
       <c r="G3" s="5">
         <f>E3-D3</f>
@@ -823,275 +849,317 @@
       </c>
     </row>
     <row r="4" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C4" s="15"/>
-      <c r="D4" s="16"/>
-      <c r="E4" s="16"/>
-      <c r="F4" s="21"/>
+      <c r="A4" s="11" t="s">
+        <v>42</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C4" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D4" s="16">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E4" s="16">
+        <v>0.52083333333333337</v>
+      </c>
+      <c r="F4" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G4" s="5">
         <f t="shared" ref="G4:G32" si="0">E4-D4</f>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H4" s="1">
         <f>SUM(G$3:G4)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>9.0277777777777735E-2</v>
       </c>
     </row>
     <row r="5" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C5" s="15"/>
-      <c r="D5" s="16"/>
-      <c r="E5" s="16"/>
-      <c r="F5" s="21"/>
+      <c r="A5" s="11" t="s">
+        <v>46</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C5" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D5" s="16">
+        <v>0.56944444444444442</v>
+      </c>
+      <c r="E5" s="16">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="F5" s="22" t="s">
+        <v>45</v>
+      </c>
       <c r="G5" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444445308E-3</v>
       </c>
       <c r="H5" s="1">
         <f>SUM(G$3:G5)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>9.7222222222222265E-2</v>
       </c>
     </row>
     <row r="6" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C6" s="15"/>
-      <c r="D6" s="16"/>
-      <c r="E6" s="16"/>
-      <c r="F6" s="21"/>
+      <c r="A6" s="11" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" t="s">
+        <v>7</v>
+      </c>
+      <c r="C6" s="15">
+        <v>43886</v>
+      </c>
+      <c r="D6" s="16">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E6" s="16">
+        <v>0.63194444444444442</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="G6" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111049E-2</v>
       </c>
       <c r="H6" s="1">
         <f>SUM(G$3:G6)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C7" s="15"/>
       <c r="D7" s="16"/>
       <c r="E7" s="16"/>
-      <c r="F7" s="21"/>
+      <c r="F7" s="20"/>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C8" s="15"/>
       <c r="D8" s="16"/>
       <c r="E8" s="16"/>
-      <c r="F8" s="21"/>
+      <c r="F8" s="20"/>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C9" s="15"/>
       <c r="D9" s="16"/>
       <c r="E9" s="16"/>
-      <c r="F9" s="21"/>
+      <c r="F9" s="20"/>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C10" s="15"/>
       <c r="D10" s="16"/>
       <c r="E10" s="16"/>
-      <c r="F10" s="21"/>
+      <c r="F10" s="20"/>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C11" s="15"/>
       <c r="D11" s="16"/>
       <c r="E11" s="16"/>
-      <c r="F11" s="21"/>
+      <c r="F11" s="20"/>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C12" s="15"/>
       <c r="D12" s="16"/>
       <c r="E12" s="16"/>
-      <c r="F12" s="21"/>
+      <c r="F12" s="20"/>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C13" s="15"/>
       <c r="D13" s="16"/>
       <c r="E13" s="16"/>
-      <c r="F13" s="21"/>
+      <c r="F13" s="20"/>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C14" s="15"/>
-      <c r="F14" s="21"/>
+      <c r="F14" s="20"/>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C15" s="15"/>
-      <c r="F15" s="21"/>
+      <c r="F15" s="20"/>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C16" s="15"/>
-      <c r="F16" s="21"/>
+      <c r="F16" s="20"/>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C17" s="15"/>
-      <c r="F17" s="21"/>
+      <c r="F17" s="20"/>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
-      <c r="F18" s="21"/>
+      <c r="F18" s="20"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
-      <c r="F19" s="21"/>
+      <c r="F19" s="20"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
-      <c r="F20" s="21"/>
+      <c r="F20" s="20"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
-      <c r="F21" s="21"/>
+      <c r="F21" s="20"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
-      <c r="F22" s="21"/>
+      <c r="F22" s="20"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
-      <c r="F23" s="21"/>
+      <c r="F23" s="20"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
-      <c r="F24" s="21"/>
+      <c r="F24" s="20"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1102,7 +1170,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1113,7 +1181,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1124,7 +1192,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1135,7 +1203,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1146,7 +1214,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1157,7 +1225,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1168,7 +1236,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1179,7 +1247,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>8.3333333333333315E-2</v>
+        <v>0.14583333333333331</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1254,8 +1322,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="B41" sqref="B41"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{FF234A9E-454B-4052-8252-B083F091DC9F}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{239F7071-8748-4CA6-9A30-521F7CE54F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
   <si>
     <t>Dato</t>
   </si>
@@ -184,6 +184,27 @@
   </si>
   <si>
     <t>1 time</t>
+  </si>
+  <si>
+    <t>30 min</t>
+  </si>
+  <si>
+    <t>OC0802 angivBrugstidogScrapværdiogAnskaffelseværd</t>
+  </si>
+  <si>
+    <t>Kundemøde KKO</t>
+  </si>
+  <si>
+    <t>Kundemøde Indtjeningsbidrag</t>
+  </si>
+  <si>
+    <t>OC06 beregn kontant kapacitetomkostning</t>
+  </si>
+  <si>
+    <t>30min</t>
+  </si>
+  <si>
+    <t>45min</t>
   </si>
 </sst>
 </file>
@@ -776,7 +797,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="2" width="53.85546875" style="11" customWidth="1"/>
+    <col min="1" max="1" width="59" style="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" style="11" customWidth="1"/>
     <col min="3" max="3" width="31.42578125" style="18" customWidth="1"/>
     <col min="4" max="4" width="26.7109375" style="17" customWidth="1"/>
     <col min="5" max="5" width="31" style="17" customWidth="1"/>
@@ -933,59 +955,109 @@
       </c>
     </row>
     <row r="7" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C7" s="15"/>
-      <c r="D7" s="16"/>
-      <c r="E7" s="16"/>
-      <c r="F7" s="20"/>
+      <c r="A7" s="11" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C7" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D7" s="16">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="E7" s="16">
+        <v>0.4236111111111111</v>
+      </c>
+      <c r="F7" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="G7" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H7" s="1">
         <f>SUM(G$3:G7)</f>
-        <v>0.14583333333333331</v>
+        <v>0.1736111111111111</v>
       </c>
     </row>
     <row r="8" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C8" s="15"/>
-      <c r="D8" s="16"/>
-      <c r="E8" s="16"/>
-      <c r="F8" s="20"/>
+      <c r="A8" s="11" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D8" s="16">
+        <v>0.46875</v>
+      </c>
+      <c r="E8" s="16">
+        <v>0.49652777777777773</v>
+      </c>
+      <c r="F8" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="G8" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.7777777777777735E-2</v>
       </c>
       <c r="H8" s="1">
         <f>SUM(G$3:G8)</f>
-        <v>0.14583333333333331</v>
+        <v>0.20138888888888884</v>
       </c>
     </row>
     <row r="9" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C9" s="15"/>
-      <c r="D9" s="16"/>
-      <c r="E9" s="16"/>
-      <c r="F9" s="20"/>
+      <c r="A9" s="11" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D9" s="16">
+        <v>0.52777777777777779</v>
+      </c>
+      <c r="E9" s="16">
+        <v>0.55555555555555558</v>
+      </c>
+      <c r="F9" s="20" t="s">
+        <v>55</v>
+      </c>
       <c r="G9" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.777777777777779E-2</v>
       </c>
       <c r="H9" s="1">
         <f>SUM(G$3:G9)</f>
-        <v>0.14583333333333331</v>
+        <v>0.22916666666666663</v>
       </c>
     </row>
     <row r="10" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C10" s="15"/>
-      <c r="D10" s="16"/>
-      <c r="E10" s="16"/>
-      <c r="F10" s="20"/>
+      <c r="A10" s="11" t="s">
+        <v>53</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10" s="15">
+        <v>43887</v>
+      </c>
+      <c r="D10" s="16">
+        <v>0.5625</v>
+      </c>
+      <c r="E10" s="16">
+        <v>0.58680555555555558</v>
+      </c>
+      <c r="F10" s="20" t="s">
+        <v>54</v>
+      </c>
       <c r="G10" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.430555555555558E-2</v>
       </c>
       <c r="H10" s="1">
         <f>SUM(G$3:G10)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -999,7 +1071,7 @@
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1013,7 +1085,7 @@
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1027,7 +1099,7 @@
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1039,7 +1111,7 @@
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1051,7 +1123,7 @@
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1063,7 +1135,7 @@
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1075,7 +1147,7 @@
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1087,7 +1159,7 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1099,7 +1171,7 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1111,7 +1183,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1123,7 +1195,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1135,7 +1207,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1147,7 +1219,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1159,7 +1231,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1170,7 +1242,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1181,7 +1253,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1192,7 +1264,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1203,7 +1275,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1214,7 +1286,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1225,7 +1297,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1236,7 +1308,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1247,7 +1319,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.14583333333333331</v>
+        <v>0.25347222222222221</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{239F7071-8748-4CA6-9A30-521F7CE54F84}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3069C2F-9111-4E8E-9EC1-2BEF9411C475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1125" yWindow="1125" windowWidth="21600" windowHeight="11385" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
+    <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
   <sheets>
     <sheet name="Ark1" sheetId="1" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="62" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
   <si>
     <t>Dato</t>
   </si>
@@ -205,6 +205,33 @@
   </si>
   <si>
     <t>45min</t>
+  </si>
+  <si>
+    <t>AD07 beregn indtjeningsbidrag</t>
+  </si>
+  <si>
+    <t>Review UC02</t>
+  </si>
+  <si>
+    <t>review DOM02</t>
+  </si>
+  <si>
+    <t>Rette OC06</t>
+  </si>
+  <si>
+    <t>10min</t>
+  </si>
+  <si>
+    <t>ATD06a</t>
+  </si>
+  <si>
+    <t>ATD07b</t>
+  </si>
+  <si>
+    <t>DD07</t>
+  </si>
+  <si>
+    <t>20 min</t>
   </si>
 </sst>
 </file>
@@ -792,7 +819,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D16" sqref="D16"/>
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1061,96 +1088,190 @@
       </c>
     </row>
     <row r="11" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C11" s="15"/>
-      <c r="D11" s="16"/>
-      <c r="E11" s="16"/>
-      <c r="F11" s="20"/>
+      <c r="A11" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C11" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E11" s="16">
+        <v>0.40138888888888885</v>
+      </c>
+      <c r="F11" s="20" t="s">
+        <v>48</v>
+      </c>
       <c r="G11" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.6805555555555536E-2</v>
       </c>
       <c r="H11" s="1">
         <f>SUM(G$3:G11)</f>
-        <v>0.25347222222222221</v>
+        <v>0.29027777777777775</v>
       </c>
     </row>
     <row r="12" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C12" s="15"/>
-      <c r="D12" s="16"/>
-      <c r="E12" s="16"/>
-      <c r="F12" s="20"/>
+      <c r="A12" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C12" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D12" s="16">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E12" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="G12" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H12" s="1">
         <f>SUM(G$3:G12)</f>
-        <v>0.25347222222222221</v>
+        <v>0.29722222222222217</v>
       </c>
     </row>
     <row r="13" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C13" s="15"/>
-      <c r="D13" s="16"/>
-      <c r="E13" s="16"/>
-      <c r="F13" s="20"/>
+      <c r="A13" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>43</v>
+      </c>
+      <c r="C13" s="15">
+        <v>43888</v>
+      </c>
+      <c r="D13" s="16">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E13" s="16">
+        <v>0.42499999999999999</v>
+      </c>
+      <c r="F13" s="20" t="s">
+        <v>45</v>
+      </c>
       <c r="G13" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>8.3333333333333037E-3</v>
       </c>
       <c r="H13" s="1">
         <f>SUM(G$3:G13)</f>
-        <v>0.25347222222222221</v>
+        <v>0.30555555555555547</v>
       </c>
     </row>
     <row r="14" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C14" s="15"/>
-      <c r="F14" s="20"/>
+      <c r="A14" s="11" t="s">
+        <v>59</v>
+      </c>
+      <c r="B14" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C14" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D14" s="17">
+        <v>0.36458333333333331</v>
+      </c>
+      <c r="E14" s="17">
+        <v>0.37152777777777773</v>
+      </c>
+      <c r="F14" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="G14" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.9444444444444198E-3</v>
       </c>
       <c r="H14" s="1">
         <f>SUM(G$3:G14)</f>
-        <v>0.25347222222222221</v>
+        <v>0.31249999999999989</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C15" s="15"/>
-      <c r="F15" s="20"/>
+      <c r="A15" s="11" t="s">
+        <v>62</v>
+      </c>
+      <c r="C15" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D15" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E15" s="17">
+        <v>0.39583333333333331</v>
+      </c>
+      <c r="F15" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="G15" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H15" s="1">
         <f>SUM(G$3:G15)</f>
-        <v>0.25347222222222221</v>
+        <v>0.3333333333333332</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C16" s="15"/>
-      <c r="F16" s="20"/>
+      <c r="A16" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C16" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D16" s="17">
+        <v>0.40625</v>
+      </c>
+      <c r="E16" s="17">
+        <v>0.42708333333333331</v>
+      </c>
+      <c r="F16" s="20" t="s">
+        <v>49</v>
+      </c>
       <c r="G16" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>2.0833333333333315E-2</v>
       </c>
       <c r="H16" s="1">
         <f>SUM(G$3:G16)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="17" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C17" s="15"/>
-      <c r="F17" s="20"/>
+        <v>0.35416666666666652</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
+      <c r="A17" s="11" t="s">
+        <v>63</v>
+      </c>
+      <c r="C17" s="15">
+        <v>43889</v>
+      </c>
+      <c r="D17" s="17">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E17" s="17">
+        <v>0.44791666666666669</v>
+      </c>
+      <c r="F17" s="20" t="s">
+        <v>64</v>
+      </c>
       <c r="G17" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.7361111111111105E-2</v>
       </c>
       <c r="H17" s="1">
         <f>SUM(G$3:G17)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="18" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C18" s="15"/>
       <c r="F18" s="20"/>
       <c r="G18" s="5">
@@ -1159,10 +1280,10 @@
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="19" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C19" s="15"/>
       <c r="F19" s="20"/>
       <c r="G19" s="5">
@@ -1171,10 +1292,10 @@
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="20" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C20" s="15"/>
       <c r="F20" s="20"/>
       <c r="G20" s="5">
@@ -1183,10 +1304,10 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C21" s="15"/>
       <c r="F21" s="20"/>
       <c r="G21" s="5">
@@ -1195,10 +1316,10 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C22" s="15"/>
       <c r="F22" s="20"/>
       <c r="G22" s="5">
@@ -1207,10 +1328,10 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C23" s="15"/>
       <c r="F23" s="20"/>
       <c r="G23" s="5">
@@ -1219,10 +1340,10 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C24" s="15"/>
       <c r="F24" s="20"/>
       <c r="G24" s="5">
@@ -1231,10 +1352,10 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C25" s="15"/>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
@@ -1242,10 +1363,10 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C26" s="15"/>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
@@ -1253,10 +1374,10 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="27" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C27" s="15"/>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
@@ -1264,10 +1385,10 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C28" s="15"/>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
@@ -1275,10 +1396,10 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C29" s="15"/>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
@@ -1286,10 +1407,10 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C30" s="15"/>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
@@ -1297,10 +1418,10 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C31" s="15"/>
       <c r="G31" s="5">
         <f t="shared" si="0"/>
@@ -1308,10 +1429,10 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.25347222222222221</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="19.5" x14ac:dyDescent="0.3">
+        <v>0.37152777777777762</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="C32" s="15"/>
       <c r="G32" s="5">
         <f t="shared" si="0"/>
@@ -1319,7 +1440,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.25347222222222221</v>
+        <v>0.37152777777777762</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{B3069C2F-9111-4E8E-9EC1-2BEF9411C475}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0DBFE-634D-4F17-9EB2-075C6F7DFC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="79" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
   <si>
     <t>Dato</t>
   </si>
@@ -232,6 +232,12 @@
   </si>
   <si>
     <t>20 min</t>
+  </si>
+  <si>
+    <t>lav SD0801 + DCD0801</t>
+  </si>
+  <si>
+    <t>lav UI til UC01</t>
   </si>
 </sst>
 </file>
@@ -430,13 +436,13 @@
     <xf numFmtId="17" fontId="4" fillId="0" borderId="4" xfId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -819,7 +825,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="E20" sqref="E20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -835,16 +841,16 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="24" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
+      <c r="B1" s="24"/>
+      <c r="C1" s="24"/>
+      <c r="D1" s="24"/>
+      <c r="E1" s="24"/>
+      <c r="F1" s="24"/>
+      <c r="G1" s="24"/>
+      <c r="H1" s="24"/>
     </row>
     <row r="2" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
       <c r="A2" s="7" t="s">
@@ -885,7 +891,7 @@
       <c r="E3" s="14">
         <v>0.46875</v>
       </c>
-      <c r="F3" s="25" t="s">
+      <c r="F3" s="23" t="s">
         <v>44</v>
       </c>
       <c r="G3" s="5">
@@ -1272,27 +1278,52 @@
       </c>
     </row>
     <row r="18" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C18" s="15"/>
+      <c r="A18" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="B18" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C18" s="15">
+        <v>43892</v>
+      </c>
+      <c r="D18" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E18" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="F18" s="20"/>
       <c r="G18" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.20833333333333337</v>
       </c>
       <c r="H18" s="1">
         <f>SUM(G$3:G18)</f>
-        <v>0.37152777777777762</v>
+        <v>0.57986111111111094</v>
       </c>
     </row>
     <row r="19" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C19" s="15"/>
+      <c r="A19" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C19" s="15">
+        <v>43892</v>
+      </c>
+      <c r="D19" s="17">
+        <v>0.58333333333333337</v>
+      </c>
+      <c r="E19" s="17">
+        <v>0.625</v>
+      </c>
       <c r="F19" s="20"/>
       <c r="G19" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.166666666666663E-2</v>
       </c>
       <c r="H19" s="1">
         <f>SUM(G$3:G19)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1304,7 +1335,7 @@
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1316,7 +1347,7 @@
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1328,7 +1359,7 @@
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1340,7 +1371,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1352,7 +1383,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1363,7 +1394,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1374,7 +1405,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1385,7 +1416,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1396,7 +1427,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1407,7 +1438,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1418,7 +1449,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1429,7 +1460,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1440,7 +1471,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.37152777777777762</v>
+        <v>0.62152777777777757</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1525,13 +1556,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="26.25" x14ac:dyDescent="0.4">
-      <c r="A1" s="24" t="s">
+      <c r="A1" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" t="s">

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{73B0DBFE-634D-4F17-9EB2-075C6F7DFC15}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{226AA652-9A99-4F75-93AB-D67BA80B3D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="82" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
   <si>
     <t>Dato</t>
   </si>
@@ -238,6 +238,12 @@
   </si>
   <si>
     <t>lav UI til UC01</t>
+  </si>
+  <si>
+    <t>lav UI til UC08</t>
+  </si>
+  <si>
+    <t>undersøgt maven mulighed</t>
   </si>
 </sst>
 </file>
@@ -824,8 +830,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1327,39 +1333,75 @@
       </c>
     </row>
     <row r="20" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C20" s="15"/>
+      <c r="A20" s="11" t="s">
+        <v>66</v>
+      </c>
+      <c r="C20" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D20" s="17">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E20" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F20" s="20"/>
       <c r="G20" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.8611111111111105E-2</v>
       </c>
       <c r="H20" s="1">
         <f>SUM(G$3:G20)</f>
-        <v>0.62152777777777757</v>
+        <v>0.67013888888888862</v>
       </c>
     </row>
     <row r="21" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C21" s="15"/>
+      <c r="A21" s="11" t="s">
+        <v>67</v>
+      </c>
+      <c r="C21" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D21" s="17">
+        <v>0.57638888888888895</v>
+      </c>
+      <c r="E21" s="17">
+        <v>0.61111111111111105</v>
+      </c>
       <c r="F21" s="20"/>
       <c r="G21" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222222099E-2</v>
       </c>
       <c r="H21" s="1">
         <f>SUM(G$3:G21)</f>
-        <v>0.62152777777777757</v>
+        <v>0.70486111111111072</v>
       </c>
     </row>
     <row r="22" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C22" s="15"/>
+      <c r="A22" s="11" t="s">
+        <v>68</v>
+      </c>
+      <c r="B22" s="11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" s="15">
+        <v>43893</v>
+      </c>
+      <c r="D22" s="17">
+        <v>0.62847222222222221</v>
+      </c>
+      <c r="E22" s="17">
+        <v>0.66319444444444442</v>
+      </c>
       <c r="F22" s="20"/>
       <c r="G22" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.472222222222221E-2</v>
       </c>
       <c r="H22" s="1">
         <f>SUM(G$3:G22)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1371,7 +1413,7 @@
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1383,7 +1425,7 @@
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1394,7 +1436,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1405,7 +1447,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1416,7 +1458,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1427,7 +1469,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1438,7 +1480,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1449,7 +1491,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1460,7 +1502,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1471,7 +1513,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.62152777777777757</v>
+        <v>0.73958333333333293</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{226AA652-9A99-4F75-93AB-D67BA80B3D78}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2A412A-5670-40AE-B819-E5D853509AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="86" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
   <si>
     <t>Dato</t>
   </si>
@@ -244,6 +244,12 @@
   </si>
   <si>
     <t>undersøgt maven mulighed</t>
+  </si>
+  <si>
+    <t>Lav UI til UC02</t>
+  </si>
+  <si>
+    <t>implementering af UC02</t>
   </si>
 </sst>
 </file>
@@ -831,7 +837,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E23" sqref="E23"/>
+      <selection activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,27 +1411,49 @@
       </c>
     </row>
     <row r="23" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C23" s="15"/>
+      <c r="A23" s="11" t="s">
+        <v>69</v>
+      </c>
+      <c r="C23" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D23" s="17">
+        <v>0.375</v>
+      </c>
+      <c r="E23" s="17">
+        <v>0.41666666666666669</v>
+      </c>
       <c r="F23" s="20"/>
       <c r="G23" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666685E-2</v>
       </c>
       <c r="H23" s="1">
         <f>SUM(G$3:G23)</f>
-        <v>0.73958333333333293</v>
+        <v>0.78124999999999956</v>
       </c>
     </row>
     <row r="24" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C24" s="15"/>
+      <c r="A24" s="11" t="s">
+        <v>70</v>
+      </c>
+      <c r="C24" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D24" s="17">
+        <v>0.43055555555555558</v>
+      </c>
+      <c r="E24" s="17">
+        <v>0.62152777777777779</v>
+      </c>
       <c r="F24" s="20"/>
       <c r="G24" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>0.19097222222222221</v>
       </c>
       <c r="H24" s="1">
         <f>SUM(G$3:G24)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1436,7 +1464,7 @@
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1447,7 +1475,7 @@
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1458,7 +1486,7 @@
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1469,7 +1497,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1480,7 +1508,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1491,7 +1519,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1502,7 +1530,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1513,7 +1541,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.73958333333333293</v>
+        <v>0.97222222222222177</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AF2A412A-5670-40AE-B819-E5D853509AAD}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861A65E-9B92-44AF-8DA5-8EA71D792C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="88" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
   <si>
     <t>Dato</t>
   </si>
@@ -250,6 +250,15 @@
   </si>
   <si>
     <t>implementering af UC02</t>
+  </si>
+  <si>
+    <t>OC0201,02,03,04</t>
+  </si>
+  <si>
+    <t>review SD10</t>
+  </si>
+  <si>
+    <t>Lav SD10</t>
   </si>
 </sst>
 </file>
@@ -836,8 +845,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A07EC185-8A27-41F3-967D-179793E73F80}">
   <dimension ref="A1:H47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D30" sqref="D30"/>
+    <sheetView tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A28" sqref="A28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1437,6 +1446,9 @@
       <c r="A24" s="11" t="s">
         <v>70</v>
       </c>
+      <c r="B24" s="11" t="s">
+        <v>9</v>
+      </c>
       <c r="C24" s="15">
         <v>43899</v>
       </c>
@@ -1457,36 +1469,72 @@
       </c>
     </row>
     <row r="25" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C25" s="15"/>
+      <c r="A25" s="11" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>7</v>
+      </c>
+      <c r="C25" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D25" s="17">
+        <v>0.36805555555555558</v>
+      </c>
+      <c r="E25" s="17">
+        <v>0.4375</v>
+      </c>
       <c r="G25" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>6.944444444444442E-2</v>
       </c>
       <c r="H25" s="1">
         <f>SUM(G$3:G25)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0416666666666661</v>
       </c>
     </row>
     <row r="26" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C26" s="15"/>
+      <c r="A26" s="11" t="s">
+        <v>72</v>
+      </c>
+      <c r="C26" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D26" s="17">
+        <v>0.51388888888888895</v>
+      </c>
+      <c r="E26" s="17">
+        <v>0.52777777777777779</v>
+      </c>
       <c r="G26" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>1.388888888888884E-2</v>
       </c>
       <c r="H26" s="1">
         <f>SUM(G$3:G26)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0555555555555549</v>
       </c>
     </row>
     <row r="27" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C27" s="15"/>
+      <c r="A27" s="11" t="s">
+        <v>73</v>
+      </c>
+      <c r="C27" s="15">
+        <v>43899</v>
+      </c>
+      <c r="D27" s="17">
+        <v>0.54166666666666663</v>
+      </c>
+      <c r="E27" s="17">
+        <v>0.58333333333333337</v>
+      </c>
       <c r="G27" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>4.1666666666666741E-2</v>
       </c>
       <c r="H27" s="1">
         <f>SUM(G$3:G27)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1497,7 +1545,7 @@
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1508,7 +1556,7 @@
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1519,7 +1567,7 @@
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1530,7 +1578,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1541,7 +1589,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>0.97222222222222177</v>
+        <v>1.0972222222222217</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
@@ -1616,7 +1664,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9466DE97-788B-454A-A978-16D65412D85C}">
   <dimension ref="A1:E31"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>

--- a/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
+++ b/08 Project Management/Tidsregistrering/PM19 Tidsregistrering af Marc.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Marc\Desktop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0861A65E-9B92-44AF-8DA5-8EA71D792C7C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{272D44B7-A51A-4773-AC07-17DEDE9934FA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="30" yWindow="15" windowWidth="15330" windowHeight="10890" xr2:uid="{84363544-26A8-43A0-AC4F-33AAA0FF1AA4}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="98" uniqueCount="77">
   <si>
     <t>Dato</t>
   </si>
@@ -259,6 +259,15 @@
   </si>
   <si>
     <t>Lav SD10</t>
+  </si>
+  <si>
+    <t>Lav SD0201</t>
+  </si>
+  <si>
+    <t>lav SD0203</t>
+  </si>
+  <si>
+    <t>oprette entities til UC02</t>
   </si>
 </sst>
 </file>
@@ -846,7 +855,7 @@
   <dimension ref="A1:H47"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A9" zoomScale="66" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A28" sqref="A28"/>
+      <selection activeCell="E31" sqref="E31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1424,7 +1433,7 @@
         <v>69</v>
       </c>
       <c r="C23" s="15">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="D23" s="17">
         <v>0.375</v>
@@ -1450,7 +1459,7 @@
         <v>9</v>
       </c>
       <c r="C24" s="15">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="D24" s="17">
         <v>0.43055555555555558</v>
@@ -1476,7 +1485,7 @@
         <v>7</v>
       </c>
       <c r="C25" s="15">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="D25" s="17">
         <v>0.36805555555555558</v>
@@ -1498,7 +1507,7 @@
         <v>72</v>
       </c>
       <c r="C26" s="15">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="D26" s="17">
         <v>0.51388888888888895</v>
@@ -1520,7 +1529,7 @@
         <v>73</v>
       </c>
       <c r="C27" s="15">
-        <v>43899</v>
+        <v>43900</v>
       </c>
       <c r="D27" s="17">
         <v>0.54166666666666663</v>
@@ -1538,36 +1547,75 @@
       </c>
     </row>
     <row r="28" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C28" s="15"/>
+      <c r="A28" s="11" t="s">
+        <v>74</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D28" s="17">
+        <v>0.40972222222222227</v>
+      </c>
+      <c r="E28" s="17">
+        <v>0.41319444444444442</v>
+      </c>
       <c r="G28" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>3.4722222222221544E-3</v>
       </c>
       <c r="H28" s="1">
         <f>SUM(G$3:G28)</f>
-        <v>1.0972222222222217</v>
+        <v>1.1006944444444438</v>
       </c>
     </row>
     <row r="29" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C29" s="15"/>
+      <c r="A29" s="11" t="s">
+        <v>75</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>10</v>
+      </c>
+      <c r="C29" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D29" s="17">
+        <v>0.41666666666666669</v>
+      </c>
+      <c r="E29" s="17">
+        <v>0.47222222222222227</v>
+      </c>
       <c r="G29" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>5.555555555555558E-2</v>
       </c>
       <c r="H29" s="1">
         <f>SUM(G$3:G29)</f>
-        <v>1.0972222222222217</v>
+        <v>1.1562499999999993</v>
       </c>
     </row>
     <row r="30" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
-      <c r="C30" s="15"/>
+      <c r="A30" s="11" t="s">
+        <v>76</v>
+      </c>
+      <c r="C30" s="15">
+        <v>43901</v>
+      </c>
+      <c r="D30" s="17">
+        <v>0.50694444444444442</v>
+      </c>
+      <c r="E30" s="17">
+        <v>0.60416666666666663</v>
+      </c>
       <c r="G30" s="5">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>9.722222222222221E-2</v>
       </c>
       <c r="H30" s="1">
         <f>SUM(G$3:G30)</f>
-        <v>1.0972222222222217</v>
+        <v>1.2534722222222214</v>
       </c>
     </row>
     <row r="31" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1578,7 +1626,7 @@
       </c>
       <c r="H31" s="1">
         <f>SUM(G$3:G31)</f>
-        <v>1.0972222222222217</v>
+        <v>1.2534722222222214</v>
       </c>
     </row>
     <row r="32" spans="1:8" ht="19.5" x14ac:dyDescent="0.3">
@@ -1589,7 +1637,7 @@
       </c>
       <c r="H32" s="1">
         <f>SUM(G$3:G32)</f>
-        <v>1.0972222222222217</v>
+        <v>1.2534722222222214</v>
       </c>
     </row>
     <row r="33" spans="3:3" x14ac:dyDescent="0.25">
